--- a/biology/Botanique/Tricalysia_vadensis/Tricalysia_vadensis.xlsx
+++ b/biology/Botanique/Tricalysia_vadensis/Tricalysia_vadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricalysia vadensis Robbr. est une espèce de plantes de la famille des Rubiacées, endémique du Cameroun, présente dans les forêts équatoriales[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricalysia vadensis Robbr. est une espèce de plantes de la famille des Rubiacées, endémique du Cameroun, présente dans les forêts équatoriales,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricalysia vadensis est une espèce du genre Tricalysia qui est composé d'arbustes ou de petits arbres, ne dépassant pas 10 m de haut [2].
-Sa corolle a 4 lobes. Son fruit est sans nerf, et avec un calice persistant. Les limbes de ces feuilles sont arrondis à la base [3].
-Cette plante a été déclarée dans l'Index International des Noms des Plantes, l'IPNI [4] et sa découverte est attribuée à Elmar Robbrecht en 1987.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricalysia vadensis est une espèce du genre Tricalysia qui est composé d'arbustes ou de petits arbres, ne dépassant pas 10 m de haut .
+Sa corolle a 4 lobes. Son fruit est sans nerf, et avec un calice persistant. Les limbes de ces feuilles sont arrondis à la base .
+Cette plante a été déclarée dans l'Index International des Noms des Plantes, l'IPNI  et sa découverte est attribuée à Elmar Robbrecht en 1987.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est présente dans les forêts équatoriales [2]. Elle est endémique principalement du Cameroun [2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est présente dans les forêts équatoriales . Elle est endémique principalement du Cameroun ,.
 </t>
         </is>
       </c>
